--- a/prod_result_BTP.xlsx
+++ b/prod_result_BTP.xlsx
@@ -572,31 +572,31 @@
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">151.232478173383</t>
+    <t xml:space="preserve">153.828448933602</t>
   </si>
   <si>
     <t xml:space="preserve">2022</t>
   </si>
   <si>
-    <t xml:space="preserve">167.20779146427</t>
+    <t xml:space="preserve">154.089521210907</t>
   </si>
   <si>
     <t xml:space="preserve">2023</t>
   </si>
   <si>
-    <t xml:space="preserve">181.598227981287</t>
+    <t xml:space="preserve">164.212142717708</t>
   </si>
   <si>
     <t xml:space="preserve">2024</t>
   </si>
   <si>
-    <t xml:space="preserve">197.070176278136</t>
+    <t xml:space="preserve">164.99924010549</t>
   </si>
   <si>
     <t xml:space="preserve">2025</t>
   </si>
   <si>
-    <t xml:space="preserve">213.852771502796</t>
+    <t xml:space="preserve">174.623895218594</t>
   </si>
   <si>
     <t xml:space="preserve">time</t>
@@ -2587,10 +2587,10 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>3934466.33521102</v>
+        <v>4027346.57628613</v>
       </c>
       <c r="C102" t="n">
-        <v>142.893902052751</v>
+        <v>146.267172768539</v>
       </c>
     </row>
     <row r="103">
@@ -2598,10 +2598,10 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>4115515.76432256</v>
+        <v>4196038.32357095</v>
       </c>
       <c r="C103" t="n">
-        <v>149.469345120758</v>
+        <v>152.393803411659</v>
       </c>
     </row>
     <row r="104">
@@ -2609,10 +2609,10 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>4248056.52283386</v>
+        <v>4183313.18378183</v>
       </c>
       <c r="C104" t="n">
-        <v>154.283026202539</v>
+        <v>151.931645466028</v>
       </c>
     </row>
     <row r="105">
@@ -2620,10 +2620,10 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>4358210.12207656</v>
+        <v>4535462.35938847</v>
       </c>
       <c r="C105" t="n">
-        <v>158.283639317482</v>
+        <v>164.721174088184</v>
       </c>
     </row>
     <row r="106">
@@ -2631,10 +2631,10 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>4458730.16854304</v>
+        <v>4332745.65644015</v>
       </c>
       <c r="C106" t="n">
-        <v>161.93437627908</v>
+        <v>157.358808209916</v>
       </c>
     </row>
     <row r="107">
@@ -2642,10 +2642,10 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>4555718.63624215</v>
+        <v>4244432.86188409</v>
       </c>
       <c r="C107" t="n">
-        <v>165.456851609372</v>
+        <v>154.151420284808</v>
       </c>
     </row>
     <row r="108">
@@ -2653,10 +2653,10 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>4652077.29029056</v>
+        <v>4327859.99230963</v>
       </c>
       <c r="C108" t="n">
-        <v>168.956453054758</v>
+        <v>157.181368234008</v>
       </c>
     </row>
     <row r="109">
@@ -2664,10 +2664,10 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>4749191.21827174</v>
+        <v>4065875.57607889</v>
       </c>
       <c r="C109" t="n">
-        <v>172.483484913872</v>
+        <v>147.666488114894</v>
       </c>
     </row>
     <row r="110">
@@ -2675,10 +2675,10 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>4847731.76678671</v>
+        <v>4329159.92558898</v>
       </c>
       <c r="C110" t="n">
-        <v>176.062329485932</v>
+        <v>157.22857985634</v>
       </c>
     </row>
     <row r="111">
@@ -2686,10 +2686,10 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>4948035.67027522</v>
+        <v>4484142.78805569</v>
       </c>
       <c r="C111" t="n">
-        <v>179.705216459529</v>
+        <v>162.857324413379</v>
       </c>
     </row>
     <row r="112">
@@ -2697,10 +2697,10 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>5050283.25958656</v>
+        <v>4476546.50858915</v>
       </c>
       <c r="C112" t="n">
-        <v>183.418695179992</v>
+        <v>162.58143896372</v>
       </c>
     </row>
     <row r="113">
@@ -2708,10 +2708,10 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>5154582.05988685</v>
+        <v>4795937.17100717</v>
       </c>
       <c r="C113" t="n">
-        <v>187.206670799697</v>
+        <v>174.181227637392</v>
       </c>
     </row>
     <row r="114">
@@ -2719,10 +2719,10 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>5261005.97454209</v>
+        <v>4618077.44026453</v>
       </c>
       <c r="C114" t="n">
-        <v>191.071827377787</v>
+        <v>167.721629618616</v>
       </c>
     </row>
     <row r="115">
@@ -2730,10 +2730,10 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>5369613.64865505</v>
+        <v>4542742.28460536</v>
       </c>
       <c r="C115" t="n">
-        <v>195.016294816226</v>
+        <v>164.985570027116</v>
       </c>
     </row>
     <row r="116">
@@ -2741,10 +2741,10 @@
         <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>5480457.07885322</v>
+        <v>4621314.13335757</v>
       </c>
       <c r="C116" t="n">
-        <v>199.04196155435</v>
+        <v>167.839181445575</v>
       </c>
     </row>
     <row r="117">
@@ -2752,10 +2752,10 @@
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>5593585.65517721</v>
+        <v>4390340.85775581</v>
       </c>
       <c r="C117" t="n">
-        <v>203.150621364179</v>
+        <v>159.450579330653</v>
       </c>
     </row>
     <row r="118">
@@ -2763,10 +2763,10 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>5709048.06412289</v>
+        <v>4630094.1313516</v>
       </c>
       <c r="C118" t="n">
-        <v>207.344042466046</v>
+        <v>168.1580577725</v>
       </c>
     </row>
     <row r="119">
@@ -2774,10 +2774,10 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>5826893.19038162</v>
+        <v>4772791.59543817</v>
       </c>
       <c r="C119" t="n">
-        <v>211.624000278446</v>
+        <v>173.340615130757</v>
       </c>
     </row>
     <row r="120">
@@ -2785,10 +2785,10 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>5947170.54995327</v>
+        <v>4769791.61196034</v>
       </c>
       <c r="C120" t="n">
-        <v>215.992293148049</v>
+        <v>173.231660241144</v>
       </c>
     </row>
     <row r="121">
@@ -2796,10 +2796,10 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>6069930.50405761</v>
+        <v>5059825.29967156</v>
       </c>
       <c r="C121" t="n">
-        <v>220.450750118642</v>
+        <v>183.765247729975</v>
       </c>
     </row>
   </sheetData>
@@ -3335,16 +3335,16 @@
         <v>183</v>
       </c>
       <c r="B27" t="n">
-        <v>5714138.4188018</v>
+        <v>5786417.22007224</v>
       </c>
       <c r="C27" t="s">
         <v>184</v>
       </c>
       <c r="D27" t="n">
-        <v>3.25517634999772</v>
+        <v>4.56126308163687</v>
       </c>
       <c r="E27" t="n">
-        <v>6.17913165338093</v>
+        <v>8.00174227543069</v>
       </c>
       <c r="F27" t="s">
         <v>135</v>
@@ -3355,16 +3355,16 @@
         <v>185</v>
       </c>
       <c r="B28" t="n">
-        <v>6158934.06607149</v>
+        <v>5793686.17376681</v>
       </c>
       <c r="C28" t="s">
         <v>186</v>
       </c>
       <c r="D28" t="n">
-        <v>7.78412447633647</v>
+        <v>0.125620974397589</v>
       </c>
       <c r="E28" t="n">
-        <v>10.5634143431629</v>
+        <v>0.169716511551643</v>
       </c>
       <c r="F28" t="s">
         <v>135</v>
@@ -3375,16 +3375,16 @@
         <v>187</v>
       </c>
       <c r="B29" t="n">
-        <v>6559602.48543395</v>
+        <v>6075527.15573691</v>
       </c>
       <c r="C29" t="s">
         <v>188</v>
       </c>
       <c r="D29" t="n">
-        <v>6.50548317394184</v>
+        <v>4.86462285869473</v>
       </c>
       <c r="E29" t="n">
-        <v>8.60631935330114</v>
+        <v>6.56931206434603</v>
       </c>
       <c r="F29" t="s">
         <v>135</v>
@@ -3395,16 +3395,16 @@
         <v>189</v>
       </c>
       <c r="B30" t="n">
-        <v>6990383.09874094</v>
+        <v>6097442.06192298</v>
       </c>
       <c r="C30" t="s">
         <v>190</v>
       </c>
       <c r="D30" t="n">
-        <v>6.56717559125837</v>
+        <v>0.360707896192736</v>
       </c>
       <c r="E30" t="n">
-        <v>8.51987845302258</v>
+        <v>0.479317409027136</v>
       </c>
       <c r="F30" t="s">
         <v>135</v>
@@ -3415,16 +3415,16 @@
         <v>191</v>
       </c>
       <c r="B31" t="n">
-        <v>7457655.64419242</v>
+        <v>6365418.3214698</v>
       </c>
       <c r="C31" t="s">
         <v>192</v>
       </c>
       <c r="D31" t="n">
-        <v>6.68450553926918</v>
+        <v>4.39489636515387</v>
       </c>
       <c r="E31" t="n">
-        <v>8.51605024241402</v>
+        <v>5.83315117509056</v>
       </c>
       <c r="F31" t="s">
         <v>135</v>
@@ -11616,19 +11616,19 @@
         <v>107</v>
       </c>
       <c r="B98" t="n">
-        <v>1370492.51351655</v>
+        <v>1393972.74367111</v>
       </c>
       <c r="C98" t="n">
-        <v>674696.782585319</v>
+        <v>690624.228515737</v>
       </c>
       <c r="D98" t="n">
-        <v>681013.265602484</v>
+        <v>692680.858133599</v>
       </c>
       <c r="E98" t="n">
-        <v>689479.24791407</v>
+        <v>701291.885537515</v>
       </c>
       <c r="F98" t="n">
-        <v>35.7234755131877</v>
+        <v>36.5667931921348</v>
       </c>
       <c r="G98" t="n">
         <v>463456.259666108</v>
@@ -11637,13 +11637,13 @@
         <v>18886.6501059296</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.504870084364972</v>
+        <v>1.84389360174437</v>
       </c>
       <c r="J98" t="n">
-        <v>0.426599154297436</v>
+        <v>2.14717744168413</v>
       </c>
       <c r="K98" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99">
@@ -11651,19 +11651,19 @@
         <v>108</v>
       </c>
       <c r="B99" t="n">
-        <v>1416262.01428102</v>
+        <v>1436618.20847153</v>
       </c>
       <c r="C99" t="n">
-        <v>719421.993418445</v>
+        <v>733497.920569989</v>
       </c>
       <c r="D99" t="n">
-        <v>703756.649366489</v>
+        <v>713871.873013605</v>
       </c>
       <c r="E99" t="n">
-        <v>712505.364914528</v>
+        <v>722746.335457923</v>
       </c>
       <c r="F99" t="n">
-        <v>37.3673362801895</v>
+        <v>38.0984508529146</v>
       </c>
       <c r="G99" t="n">
         <v>463456.259666108</v>
@@ -11672,10 +11672,10 @@
         <v>19252.6967409194</v>
       </c>
       <c r="I99" t="n">
-        <v>4.93814009123406</v>
+        <v>6.99131837721334</v>
       </c>
       <c r="J99" t="n">
-        <v>2.65312228007377</v>
+        <v>4.12857447064627</v>
       </c>
       <c r="K99" t="s">
         <v>135</v>
@@ -11686,19 +11686,19 @@
         <v>109</v>
       </c>
       <c r="B100" t="n">
-        <v>1449768.46816919</v>
+        <v>1433401.27871834</v>
       </c>
       <c r="C100" t="n">
-        <v>738648.783922172</v>
+        <v>727391.262182339</v>
       </c>
       <c r="D100" t="n">
-        <v>720406.386126154</v>
+        <v>712273.344152758</v>
       </c>
       <c r="E100" t="n">
-        <v>729362.082043034</v>
+        <v>721127.934565585</v>
       </c>
       <c r="F100" t="n">
-        <v>38.5707565506349</v>
+        <v>37.9829113665069</v>
       </c>
       <c r="G100" t="n">
         <v>463456.259666108</v>
@@ -11707,10 +11707,10 @@
         <v>19150.4873116111</v>
       </c>
       <c r="I100" t="n">
-        <v>2.1981892194332</v>
+        <v>0.640617661811027</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.325797907268832</v>
+        <v>-1.45107175949549</v>
       </c>
       <c r="K100" t="s">
         <v>182</v>
@@ -11721,19 +11721,19 @@
         <v>110</v>
       </c>
       <c r="B101" t="n">
-        <v>1477615.42283504</v>
+        <v>1522424.98921126</v>
       </c>
       <c r="C101" t="n">
-        <v>791327.100659683</v>
+        <v>823511.069561726</v>
       </c>
       <c r="D101" t="n">
-        <v>734243.853567267</v>
+        <v>756510.235052125</v>
       </c>
       <c r="E101" t="n">
-        <v>743371.569267771</v>
+        <v>765914.754159133</v>
       </c>
       <c r="F101" t="n">
-        <v>39.5709098293704</v>
+        <v>41.1802935220461</v>
       </c>
       <c r="G101" t="n">
         <v>463456.259666108</v>
@@ -11742,10 +11742,10 @@
         <v>19997.6979066663</v>
       </c>
       <c r="I101" t="n">
-        <v>19.2733724522397</v>
+        <v>24.1243253725232</v>
       </c>
       <c r="J101" t="n">
-        <v>10.6694570984484</v>
+        <v>14.0255741956552</v>
       </c>
       <c r="K101" t="s">
         <v>135</v>
@@ -11756,19 +11756,19 @@
         <v>111</v>
       </c>
       <c r="B102" t="n">
-        <v>1503027.00444658</v>
+        <v>1471177.97707709</v>
       </c>
       <c r="C102" t="n">
-        <v>764599.476226232</v>
+        <v>742995.187936689</v>
       </c>
       <c r="D102" t="n">
-        <v>746871.156530781</v>
+        <v>731045.013796514</v>
       </c>
       <c r="E102" t="n">
-        <v>756155.8479158</v>
+        <v>740132.96328058</v>
       </c>
       <c r="F102" t="n">
-        <v>40.48359406977</v>
+        <v>39.3397020524789</v>
       </c>
       <c r="G102" t="n">
         <v>463456.259666108</v>
@@ -11777,10 +11777,10 @@
         <v>18886.6501059296</v>
       </c>
       <c r="I102" t="n">
-        <v>13.3249032693503</v>
+        <v>7.58313381699702</v>
       </c>
       <c r="J102" t="n">
-        <v>9.67057387201311</v>
+        <v>5.53850380192193</v>
       </c>
       <c r="K102" t="s">
         <v>135</v>
@@ -11791,19 +11791,19 @@
         <v>112</v>
       </c>
       <c r="B103" t="n">
-        <v>1527545.79894531</v>
+        <v>1448852.40257636</v>
       </c>
       <c r="C103" t="n">
-        <v>796372.646935635</v>
+        <v>741957.636731357</v>
       </c>
       <c r="D103" t="n">
-        <v>759054.823457478</v>
+        <v>719951.182748736</v>
       </c>
       <c r="E103" t="n">
-        <v>768490.975487835</v>
+        <v>728901.219827622</v>
       </c>
       <c r="F103" t="n">
-        <v>41.3642129023429</v>
+        <v>38.537855071202</v>
       </c>
       <c r="G103" t="n">
         <v>463456.259666108</v>
@@ -11812,10 +11812,10 @@
         <v>19252.6967409194</v>
       </c>
       <c r="I103" t="n">
-        <v>10.6961775176689</v>
+        <v>1.15333880630426</v>
       </c>
       <c r="J103" t="n">
-        <v>7.85757038896444</v>
+        <v>0.851596759158868</v>
       </c>
       <c r="K103" t="s">
         <v>135</v>
@@ -11826,19 +11826,19 @@
         <v>113</v>
       </c>
       <c r="B104" t="n">
-        <v>1551905.37583972</v>
+        <v>1469942.87565063</v>
       </c>
       <c r="C104" t="n">
-        <v>808899.602609988</v>
+        <v>752524.949496759</v>
       </c>
       <c r="D104" t="n">
-        <v>771159.373351727</v>
+        <v>730431.277896833</v>
       </c>
       <c r="E104" t="n">
-        <v>780746.002487994</v>
+        <v>739511.597753793</v>
       </c>
       <c r="F104" t="n">
-        <v>42.2391132636895</v>
+        <v>39.295342058502</v>
       </c>
       <c r="G104" t="n">
         <v>463456.259666108</v>
@@ -11847,10 +11847,10 @@
         <v>19150.4873116111</v>
       </c>
       <c r="I104" t="n">
-        <v>9.51072014425973</v>
+        <v>3.45531883886179</v>
       </c>
       <c r="J104" t="n">
-        <v>7.04504960019692</v>
+        <v>2.54929289340082</v>
       </c>
       <c r="K104" t="s">
         <v>135</v>
@@ -11861,19 +11861,19 @@
         <v>114</v>
       </c>
       <c r="B105" t="n">
-        <v>1576455.88683988</v>
+        <v>1403712.91846273</v>
       </c>
       <c r="C105" t="n">
-        <v>862318.156299162</v>
+        <v>738247.455064996</v>
       </c>
       <c r="D105" t="n">
-        <v>783358.800567513</v>
+        <v>697520.861400277</v>
       </c>
       <c r="E105" t="n">
-        <v>793097.086272363</v>
+        <v>706192.057062453</v>
       </c>
       <c r="F105" t="n">
-        <v>43.120871228468</v>
+        <v>36.9166220287235</v>
       </c>
       <c r="G105" t="n">
         <v>463456.259666108</v>
@@ -11882,10 +11882,10 @@
         <v>19997.6979066663</v>
       </c>
       <c r="I105" t="n">
-        <v>8.9711391888762</v>
+        <v>-10.3536695070908</v>
       </c>
       <c r="J105" t="n">
-        <v>6.68918735398674</v>
+        <v>-7.79756451646464</v>
       </c>
       <c r="K105" t="s">
         <v>135</v>
@@ -11896,19 +11896,19 @@
         <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>1601367.04912699</v>
+        <v>1470271.50025615</v>
       </c>
       <c r="C106" t="n">
-        <v>831306.90345892</v>
+        <v>742380.293599723</v>
       </c>
       <c r="D106" t="n">
-        <v>795737.439496061</v>
+        <v>730594.575188544</v>
       </c>
       <c r="E106" t="n">
-        <v>805629.609630927</v>
+        <v>739676.92506761</v>
       </c>
       <c r="F106" t="n">
-        <v>44.0155823714829</v>
+        <v>39.3071449640849</v>
       </c>
       <c r="G106" t="n">
         <v>463456.259666108</v>
@@ -11917,10 +11917,10 @@
         <v>18886.6501059296</v>
       </c>
       <c r="I106" t="n">
-        <v>8.72449292823618</v>
+        <v>-0.0827588585969208</v>
       </c>
       <c r="J106" t="n">
-        <v>6.5427995897263</v>
+        <v>-0.0616157144182727</v>
       </c>
       <c r="K106" t="s">
         <v>135</v>
@@ -11931,19 +11931,19 @@
         <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>1626723.98954886</v>
+        <v>1509451.34344571</v>
       </c>
       <c r="C107" t="n">
-        <v>864952.508814147</v>
+        <v>783860.669742079</v>
       </c>
       <c r="D107" t="n">
-        <v>808337.590633027</v>
+        <v>750063.483404503</v>
       </c>
       <c r="E107" t="n">
-        <v>818386.398915836</v>
+        <v>759387.860041207</v>
       </c>
       <c r="F107" t="n">
-        <v>44.9263041148822</v>
+        <v>40.7143311033447</v>
       </c>
       <c r="G107" t="n">
         <v>463456.259666108</v>
@@ -11952,10 +11952,10 @@
         <v>19252.6967409194</v>
       </c>
       <c r="I107" t="n">
-        <v>8.61152905519813</v>
+        <v>5.64763147331744</v>
       </c>
       <c r="J107" t="n">
-        <v>6.4926492333014</v>
+        <v>4.18254756396126</v>
       </c>
       <c r="K107" t="s">
         <v>135</v>
@@ -11966,19 +11966,19 @@
         <v>117</v>
       </c>
       <c r="B108" t="n">
-        <v>1652572.29594848</v>
+        <v>1507530.99539183</v>
       </c>
       <c r="C108" t="n">
-        <v>878139.348689172</v>
+        <v>778378.445994548</v>
       </c>
       <c r="D108" t="n">
-        <v>821181.90709436</v>
+        <v>749109.240687838</v>
       </c>
       <c r="E108" t="n">
-        <v>831390.388854116</v>
+        <v>758421.75470399</v>
       </c>
       <c r="F108" t="n">
-        <v>45.8546737949979</v>
+        <v>40.6453597409301</v>
       </c>
       <c r="G108" t="n">
         <v>463456.259666108</v>
@@ -11987,10 +11987,10 @@
         <v>19150.4873116111</v>
       </c>
       <c r="I108" t="n">
-        <v>8.55974534488291</v>
+        <v>3.43556668985896</v>
       </c>
       <c r="J108" t="n">
-        <v>6.48666611224826</v>
+        <v>2.55711431810337</v>
       </c>
       <c r="K108" t="s">
         <v>135</v>
@@ -12001,19 +12001,19 @@
         <v>118</v>
       </c>
       <c r="B109" t="n">
-        <v>1678939.15080962</v>
+        <v>1588273.31664321</v>
       </c>
       <c r="C109" t="n">
-        <v>935925.612191267</v>
+        <v>870805.892826211</v>
       </c>
       <c r="D109" t="n">
-        <v>834283.896164391</v>
+        <v>789231.015396873</v>
       </c>
       <c r="E109" t="n">
-        <v>844655.254645228</v>
+        <v>799042.30124634</v>
       </c>
       <c r="F109" t="n">
-        <v>46.8016676999242</v>
+        <v>43.545306909348</v>
       </c>
       <c r="G109" t="n">
         <v>463456.259666108</v>
@@ -12022,10 +12022,10 @@
         <v>19997.6979066663</v>
       </c>
       <c r="I109" t="n">
-        <v>8.53599745690246</v>
+        <v>17.9558272570739</v>
       </c>
       <c r="J109" t="n">
-        <v>6.50086468167388</v>
+        <v>13.1480159335289</v>
       </c>
       <c r="K109" t="s">
         <v>135</v>
@@ -12036,19 +12036,19 @@
         <v>119</v>
       </c>
       <c r="B110" t="n">
-        <v>1705843.23698693</v>
+        <v>1543310.17523956</v>
       </c>
       <c r="C110" t="n">
-        <v>902176.68719621</v>
+        <v>791924.93345078</v>
       </c>
       <c r="D110" t="n">
-        <v>847652.841565376</v>
+        <v>766888.320739988</v>
       </c>
       <c r="E110" t="n">
-        <v>858190.395421554</v>
+        <v>776421.854499573</v>
       </c>
       <c r="F110" t="n">
-        <v>47.7679568444468</v>
+        <v>41.9304074046541</v>
       </c>
       <c r="G110" t="n">
         <v>463456.259666108</v>
@@ -12057,10 +12057,10 @@
         <v>18886.6501059296</v>
       </c>
       <c r="I110" t="n">
-        <v>8.52510468064358</v>
+        <v>6.67375471550047</v>
       </c>
       <c r="J110" t="n">
-        <v>6.5241874382828</v>
+        <v>4.96769984119823</v>
       </c>
       <c r="K110" t="s">
         <v>135</v>
@@ -12071,19 +12071,19 @@
         <v>120</v>
       </c>
       <c r="B111" t="n">
-        <v>1733299.38002882</v>
+        <v>1524265.36255247</v>
       </c>
       <c r="C111" t="n">
-        <v>938647.395908635</v>
+        <v>794104.286589947</v>
       </c>
       <c r="D111" t="n">
-        <v>861296.110280381</v>
+        <v>757424.737427489</v>
       </c>
       <c r="E111" t="n">
-        <v>872003.269748443</v>
+        <v>766840.625124986</v>
       </c>
       <c r="F111" t="n">
-        <v>48.7540737040565</v>
+        <v>41.246392506779</v>
       </c>
       <c r="G111" t="n">
         <v>463456.259666108</v>
@@ -12092,10 +12092,10 @@
         <v>19252.6967409194</v>
       </c>
       <c r="I111" t="n">
-        <v>8.52010790690967</v>
+        <v>1.30681602525591</v>
       </c>
       <c r="J111" t="n">
-        <v>6.5515349355312</v>
+        <v>0.981417464768874</v>
       </c>
       <c r="K111" t="s">
         <v>135</v>
@@ -12106,19 +12106,19 @@
         <v>121</v>
       </c>
       <c r="B112" t="n">
-        <v>1761320.72474163</v>
+        <v>1544128.41491987</v>
       </c>
       <c r="C112" t="n">
-        <v>952937.63980619</v>
+        <v>803550.528666168</v>
       </c>
       <c r="D112" t="n">
-        <v>875220.234112678</v>
+        <v>767294.913312539</v>
       </c>
       <c r="E112" t="n">
-        <v>886100.490628951</v>
+        <v>776833.501607331</v>
       </c>
       <c r="F112" t="n">
-        <v>49.7604903885876</v>
+        <v>41.9597953613938</v>
       </c>
       <c r="G112" t="n">
         <v>463456.259666108</v>
@@ -12127,10 +12127,10 @@
         <v>19150.4873116111</v>
       </c>
       <c r="I112" t="n">
-        <v>8.51781567796408</v>
+        <v>3.23391311786099</v>
       </c>
       <c r="J112" t="n">
-        <v>6.58055499658112</v>
+        <v>2.42763960674179</v>
       </c>
       <c r="K112" t="s">
         <v>135</v>
@@ -12141,19 +12141,19 @@
         <v>122</v>
       </c>
       <c r="B113" t="n">
-        <v>1789919.75698356</v>
+        <v>1485738.10921108</v>
       </c>
       <c r="C113" t="n">
-        <v>1015636.1888981</v>
+        <v>797161.129124334</v>
       </c>
       <c r="D113" t="n">
-        <v>889431.417426749</v>
+        <v>738280.108504711</v>
       </c>
       <c r="E113" t="n">
-        <v>900488.339556807</v>
+        <v>747458.000706366</v>
       </c>
       <c r="F113" t="n">
-        <v>50.7876553410449</v>
+        <v>39.8626448326633</v>
       </c>
       <c r="G113" t="n">
         <v>463456.259666108</v>
@@ -12162,10 +12162,10 @@
         <v>19997.6979066663</v>
       </c>
       <c r="I113" t="n">
-        <v>8.5167641176324</v>
+        <v>-8.45708145851683</v>
       </c>
       <c r="J113" t="n">
-        <v>6.61016250174526</v>
+        <v>-6.45576591621162</v>
       </c>
       <c r="K113" t="s">
         <v>135</v>
@@ -12176,19 +12176,19 @@
         <v>123</v>
       </c>
       <c r="B114" t="n">
-        <v>1819108.78475591</v>
+        <v>1546348.00835837</v>
       </c>
       <c r="C114" t="n">
-        <v>979008.595401305</v>
+        <v>793985.599910476</v>
       </c>
       <c r="D114" t="n">
-        <v>903935.776207964</v>
+        <v>768397.854453008</v>
       </c>
       <c r="E114" t="n">
-        <v>915173.008547948</v>
+        <v>777950.153905361</v>
       </c>
       <c r="F114" t="n">
-        <v>51.8360106165116</v>
+        <v>42.0395144431251</v>
       </c>
       <c r="G114" t="n">
         <v>463456.259666108</v>
@@ -12197,10 +12197,10 @@
         <v>18886.6501059296</v>
       </c>
       <c r="I114" t="n">
-        <v>8.51628171016849</v>
+        <v>0.260209821998747</v>
       </c>
       <c r="J114" t="n">
-        <v>6.63985677658427</v>
+        <v>0.196838792845799</v>
       </c>
       <c r="K114" t="s">
         <v>135</v>
@@ -12211,19 +12211,19 @@
         <v>124</v>
       </c>
       <c r="B115" t="n">
-        <v>1848900.16616405</v>
+        <v>1582422.08892105</v>
       </c>
       <c r="C115" t="n">
-        <v>1018583.17511529</v>
+        <v>834318.573999225</v>
       </c>
       <c r="D115" t="n">
-        <v>918739.451338962</v>
+        <v>786323.474013352</v>
       </c>
       <c r="E115" t="n">
-        <v>930160.714825086</v>
+        <v>796098.614907696</v>
       </c>
       <c r="F115" t="n">
-        <v>52.9060000696114</v>
+        <v>43.3351537826893</v>
       </c>
       <c r="G115" t="n">
         <v>463456.259666108</v>
@@ -12232,10 +12232,10 @@
         <v>19252.6967409194</v>
       </c>
       <c r="I115" t="n">
-        <v>8.51606040298833</v>
+        <v>5.06410657748317</v>
       </c>
       <c r="J115" t="n">
-        <v>6.66940676649299</v>
+        <v>3.81539381510234</v>
       </c>
       <c r="K115" t="s">
         <v>135</v>
@@ -12246,19 +12246,19 @@
         <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>1879306.41890882</v>
+        <v>1581663.6896996</v>
       </c>
       <c r="C116" t="n">
-        <v>1034089.41733437</v>
+        <v>829367.677854335</v>
       </c>
       <c r="D116" t="n">
-        <v>933848.663007196</v>
+        <v>785946.616843149</v>
       </c>
       <c r="E116" t="n">
-        <v>945457.755901624</v>
+        <v>795717.072856452</v>
       </c>
       <c r="F116" t="n">
-        <v>53.9980732870122</v>
+        <v>43.3079150602859</v>
       </c>
       <c r="G116" t="n">
         <v>463456.259666108</v>
@@ -12267,10 +12267,10 @@
         <v>19150.4873116111</v>
       </c>
       <c r="I116" t="n">
-        <v>8.51595887687731</v>
+        <v>3.21288435103411</v>
       </c>
       <c r="J116" t="n">
-        <v>6.69870583533274</v>
+        <v>2.4308389391098</v>
       </c>
       <c r="K116" t="s">
         <v>135</v>
@@ -12281,19 +12281,19 @@
         <v>126</v>
       </c>
       <c r="B117" t="n">
-        <v>1910340.27436363</v>
+        <v>1654984.53449078</v>
       </c>
       <c r="C117" t="n">
-        <v>1102126.87604265</v>
+        <v>918720.477461934</v>
       </c>
       <c r="D117" t="n">
-        <v>949269.737576432</v>
+        <v>822380.575770697</v>
       </c>
       <c r="E117" t="n">
-        <v>961070.536787202</v>
+        <v>832603.958720083</v>
       </c>
       <c r="F117" t="n">
-        <v>55.1126875296605</v>
+        <v>45.9413119324937</v>
       </c>
       <c r="G117" t="n">
         <v>463456.259666108</v>
@@ -12302,10 +12302,10 @@
         <v>19997.6979066663</v>
       </c>
       <c r="I117" t="n">
-        <v>8.51591230107493</v>
+        <v>15.2490310799688</v>
       </c>
       <c r="J117" t="n">
-        <v>6.72770479851093</v>
+        <v>11.3914036552224</v>
       </c>
       <c r="K117" t="s">
         <v>135</v>
@@ -13106,7 +13106,7 @@
         <v>107</v>
       </c>
       <c r="B98" t="n">
-        <v>674696.782585319</v>
+        <v>690624.228515737</v>
       </c>
     </row>
     <row r="99">
@@ -13114,7 +13114,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="n">
-        <v>719421.993418445</v>
+        <v>733497.920569989</v>
       </c>
     </row>
     <row r="100">
@@ -13122,7 +13122,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="n">
-        <v>738648.783922172</v>
+        <v>727391.262182339</v>
       </c>
     </row>
     <row r="101">
@@ -13130,7 +13130,7 @@
         <v>110</v>
       </c>
       <c r="B101" t="n">
-        <v>791327.100659683</v>
+        <v>823511.069561726</v>
       </c>
     </row>
     <row r="102">
@@ -13138,7 +13138,7 @@
         <v>111</v>
       </c>
       <c r="B102" t="n">
-        <v>764599.476226232</v>
+        <v>742995.187936689</v>
       </c>
     </row>
     <row r="103">
@@ -13146,7 +13146,7 @@
         <v>112</v>
       </c>
       <c r="B103" t="n">
-        <v>796372.646935635</v>
+        <v>741957.636731357</v>
       </c>
     </row>
     <row r="104">
@@ -13154,7 +13154,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="n">
-        <v>808899.602609988</v>
+        <v>752524.949496759</v>
       </c>
     </row>
     <row r="105">
@@ -13162,7 +13162,7 @@
         <v>114</v>
       </c>
       <c r="B105" t="n">
-        <v>862318.156299162</v>
+        <v>738247.455064996</v>
       </c>
     </row>
     <row r="106">
@@ -13170,7 +13170,7 @@
         <v>115</v>
       </c>
       <c r="B106" t="n">
-        <v>831306.90345892</v>
+        <v>742380.293599723</v>
       </c>
     </row>
     <row r="107">
@@ -13178,7 +13178,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="n">
-        <v>864952.508814147</v>
+        <v>783860.669742079</v>
       </c>
     </row>
     <row r="108">
@@ -13186,7 +13186,7 @@
         <v>117</v>
       </c>
       <c r="B108" t="n">
-        <v>878139.348689172</v>
+        <v>778378.445994548</v>
       </c>
     </row>
     <row r="109">
@@ -13194,7 +13194,7 @@
         <v>118</v>
       </c>
       <c r="B109" t="n">
-        <v>935925.612191267</v>
+        <v>870805.892826211</v>
       </c>
     </row>
     <row r="110">
@@ -13202,7 +13202,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="n">
-        <v>902176.68719621</v>
+        <v>791924.93345078</v>
       </c>
     </row>
     <row r="111">
@@ -13210,7 +13210,7 @@
         <v>120</v>
       </c>
       <c r="B111" t="n">
-        <v>938647.395908635</v>
+        <v>794104.286589947</v>
       </c>
     </row>
     <row r="112">
@@ -13218,7 +13218,7 @@
         <v>121</v>
       </c>
       <c r="B112" t="n">
-        <v>952937.63980619</v>
+        <v>803550.528666168</v>
       </c>
     </row>
     <row r="113">
@@ -13226,7 +13226,7 @@
         <v>122</v>
       </c>
       <c r="B113" t="n">
-        <v>1015636.1888981</v>
+        <v>797161.129124334</v>
       </c>
     </row>
     <row r="114">
@@ -13234,7 +13234,7 @@
         <v>123</v>
       </c>
       <c r="B114" t="n">
-        <v>979008.595401305</v>
+        <v>793985.599910476</v>
       </c>
     </row>
     <row r="115">
@@ -13242,7 +13242,7 @@
         <v>124</v>
       </c>
       <c r="B115" t="n">
-        <v>1018583.17511529</v>
+        <v>834318.573999225</v>
       </c>
     </row>
     <row r="116">
@@ -13250,7 +13250,7 @@
         <v>125</v>
       </c>
       <c r="B116" t="n">
-        <v>1034089.41733437</v>
+        <v>829367.677854335</v>
       </c>
     </row>
     <row r="117">
@@ -13258,7 +13258,7 @@
         <v>126</v>
       </c>
       <c r="B117" t="n">
-        <v>1102126.87604265</v>
+        <v>918720.477461934</v>
       </c>
     </row>
   </sheetData>
